--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Arduino-Thermostat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xxxa\Desktop\Arduino-Thermostat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C2BEC7-5716-4122-B550-033CFFF0CDBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90B5BC3-B7A2-49F9-ABE2-53C5A8F2B38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,6 +638,7 @@
     <hyperlink ref="C4" r:id="rId4" xr:uid="{8C9EB3AC-5791-48B8-875A-8A129F578389}"/>
     <hyperlink ref="C8" r:id="rId5" xr:uid="{9A932A9A-5EE4-4CCB-BF8E-BE97718A3E58}"/>
     <hyperlink ref="C9" r:id="rId6" xr:uid="{5D0EA190-0990-44BD-803C-690FE7DEE362}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{1DD29441-5278-4476-8E24-41C17C67DC49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xxxa\Desktop\Arduino-Thermostat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90B5BC3-B7A2-49F9-ABE2-53C5A8F2B38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BEF067-E3BB-46F6-8FB0-49F3D6AC2040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -604,7 +604,7 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -615,7 +615,7 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -626,7 +626,7 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -639,6 +639,10 @@
     <hyperlink ref="C8" r:id="rId5" xr:uid="{9A932A9A-5EE4-4CCB-BF8E-BE97718A3E58}"/>
     <hyperlink ref="C9" r:id="rId6" xr:uid="{5D0EA190-0990-44BD-803C-690FE7DEE362}"/>
     <hyperlink ref="C5" r:id="rId7" xr:uid="{1DD29441-5278-4476-8E24-41C17C67DC49}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{F03B2194-6067-4252-82E8-3ECB6948AD7B}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{FA084577-B508-4D1F-A442-985C6DE067E8}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{6B729F37-69ED-433C-B034-22B0145AD91D}"/>
+    <hyperlink ref="C2" r:id="rId11" xr:uid="{839FB170-B563-49EE-BF33-DF83C93FF05B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
